--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silverfox_x\Desktop\컨텐츠 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D81F94D-6D20-4C67-AFBF-2541C98F02C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" activeTab="2" xr2:uid="{04B7F17D-80FF-4F56-9AB6-B481116235B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="보류" sheetId="2" r:id="rId1"/>
     <sheet name="디스크립션" sheetId="3" r:id="rId2"/>
-    <sheet name="001" sheetId="4" r:id="rId3"/>
+    <sheet name="001_No.107" sheetId="4" r:id="rId3"/>
+    <sheet name="002_No.108" sheetId="5" r:id="rId4"/>
+    <sheet name="003_Jake" sheetId="6" r:id="rId5"/>
+    <sheet name="004_Don Cina" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">디스크립션!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">보류!$A$1:$I$30</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="213">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -469,39 +470,223 @@
     <t>기타</t>
   </si>
   <si>
+    <t>애니메이션 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walk_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레퍼런스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.I 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.107</t>
+  </si>
+  <si>
+    <t>불명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>아너킹의 고철장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형톱날, 팔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적으로 녹슬어 있음. 몸체, 몸체 상단에는 원형 톱니와, 팔 하나, 증기 파이프 하나, 바퀴로 이루어져 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 고철을 자르는 용도로 개발되었던 이 로봇은, '해킹 사건' 이후로 처리대상이 되었다.
+가까스로 도망쳐서 고철인 척 숨어 살고 있는 이 로봇은
+많은 부품들이 낡아서 떨어져 나갔기 때문에 현재는 일부의 부품만이 남아 명맥을 이어가고 있다.
+원래의 모습을 되찾기 위해 돈 벌 수단을 찾아가는 중이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 고철을 자르는 용도로 개발되었던 이 로봇은, '해킹 사건' 이후로 처리대상이 되었다.
+가까스로 도망쳐서 고철인 척 숨어 살고 있는 이 로봇은
+많은 부품들이 낡아서 떨어져 나갔기 때문에 현재는 일부의 부품만이 남아 명맥을 이어가고 있다.
+원래의 모습을 되찾기 위해 돈 벌 수단을 찾아가는 중이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바퀴는 돌아가며, 나머지는 앞으로 쏠림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸체가 줄어들면서 옆으로 퍼졌다가 위로 늘어면서 옆은 날씬해 진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바퀴는 고정, 몸이 전체적으로 뒤로 쏠림, 팔은 뒤로 움직인다. 몸체가 전체적으로 앞으로 쏠리면서 뒤로간 손이 앞으로 간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적으로 균열이 가면서 무너진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든게 조각조각 나서 바닥에 굴러다님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기 파이프가 줄었다 커졌다 하면서 증기 배출, 바퀴는 좌우로 움직인임, 나머지는 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바퀴는 돌아가며, 나머지는 앞으로 쏠림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.108 Attack 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Idle_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Walk_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Walk_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run_02</t>
+    <t>Jump_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeadBody</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형적으로 No.107과 같으나 녹슬지 않은 모습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기 파이프가 줄었다 커졌다 하면서 증기 배출, 바퀴는 좌우로 움직인임, 나머지는 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸체 앞쪽으로 쏠린 후 원형 톱니가 돌아간다..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.107 Attack_01사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이크</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아너킹의 고철장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>악취 폭탄, 썩은 폭탄</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년, 30대</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비와 싸우다 귀 한쪽이 뜯겨지고, 좀비 상태를 유지하다가 점차 지능이 높아지고 수인이 됨. 그래서 몸 여기저기 물어뜯긴 자국이 있음. 얼굴은 양호해서 몸만 망토 등으로 가리고 다니는데, 목에 자세히 보면 물린 자국이 존재.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30여년 전, 평범한 들쥐는 시체를 놓고 '역병걸린 무언가'와 혈투를 벌이고, 지금의 모습이 되었다.
+통곡의 벽에서 나는 드릴 소리에 심취해 항상 적당한 간격으로 통곡의 벽의 인부들 사이를 휘젓고 있으며,
+순진무구한 그의 모습과는 별개로, 지저분한 외형에 원활하지 못한 의사소통은 그에게 암살자라는 천직을 주었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양팔을 좌우로 벌리고 주의를 두리번 거림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>망토상단이 살짝 부풀어 오르며 발만 움직임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약간 키가 작아진 상태에서 튀어 오르며 중간 단계에서 다리를 쭉 뻗었다가 다시 원상태</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -509,11 +694,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attack_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack_03</t>
+    <t>망토가 팔락 거리면서 손만 튀어나와 폭탄을 굴림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽은 상태가 되며 두 손을 위로 든 상태</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -521,7 +706,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Die</t>
+    <t>누운 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_01과 같으나 폭탄만 다른 형태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈 시나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아너킹의고철장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중화식칼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 때 배고픈 돼지들과 잿빛 공방 골목에서 열리던 '싸움 쇼'에서 돈 시나는 최고의 참가자였다. 관중들은 돈 시나의 호쾌한 주먹에 환호했고, 돈 시나는 이를 잘 알고 있었다.
+어느 날 평소대로의 몫을 챙기기 위해 만난 술집에서 돈 시나의 친구들은 그를 온갖 무기들로 환영했고. 거기서 돈 시나는 어느 때 보다도 화려한 움직임으로 마지막 쇼를 장식했다.
+이제 돈 시나는 쇼와 함께 고정 수입을 잃어버렸지만, 관객이 없는 쇼를 위한 후원은 마다하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로레슬러같은 근육질몸에 사슬을 두르고 있고 한손에는 식칼을 가지고 있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -537,19 +764,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>레퍼런스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.I 구성</t>
+    <t>Dameged_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두팔을 약간 벌린 상태에서 발을 구른다. 코에서는 콧김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두팔을 약간 벌린 상태에서 걷는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 다리를 이용해서 점프, 몸체 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸체가 약간 뒤로 밀리며, 팔다리는 앞으로 무장을 살짝 놓친다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른팔을 크게 휘두르며 식칼로 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 무장을 땅에 떨어트리며 무릎을 꿇는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 무장이 바닥에 널브러져 있고 앞으로 널브러젼다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미식축구 태클 자세를 취한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼을 빠르게 5번 휘두른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹스킹 이즈 커밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +878,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -632,7 +918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -719,37 +1005,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -815,38 +1071,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,111 +1115,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,6 +1255,357 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>893781</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2000250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1666875"/>
+          <a:ext cx="2001062" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5648325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1416580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="22422" t="28750" r="23594" b="30417"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2964656" y="750094"/>
+          <a:ext cx="5553075" cy="2333361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>893781</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2000250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1638300"/>
+          <a:ext cx="1998681" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5648325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1416580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="22422" t="28750" r="23594" b="30417"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="735806"/>
+          <a:ext cx="5553075" cy="2319074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>893885</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2000250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="851647" y="1680882"/>
+          <a:ext cx="2003267" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5663711</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1651532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="15625" t="16914" r="12639" b="20000"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2901462" y="520215"/>
+          <a:ext cx="5634403" cy="2787202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2004393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861392" y="1606827"/>
+          <a:ext cx="2004392" cy="2004392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25822</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5670179</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2708325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3667779" y="-481899"/>
+          <a:ext cx="4097855" cy="5644357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1286,14 +1904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD5127E-2700-4440-8387-D595BCD7083F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -1301,7 +1919,7 @@
     <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="12" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1949,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="12" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
@@ -1353,7 +1971,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="12" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -1372,7 +1990,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="12" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>94</v>
       </c>
@@ -1391,7 +2009,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="12" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
@@ -1410,7 +2028,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -1429,7 +2047,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="12" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>71</v>
       </c>
@@ -1448,7 +2066,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="12" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -1467,7 +2085,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>103</v>
       </c>
@@ -1486,7 +2104,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="12" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1505,7 +2123,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="12" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
@@ -1523,7 +2141,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="12" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>104</v>
       </c>
@@ -1536,7 +2154,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="12" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>105</v>
       </c>
@@ -1550,7 +2168,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="12" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>106</v>
       </c>
@@ -1564,19 +2182,19 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="12" customHeight="1">
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="12" customHeight="1">
       <c r="I16" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="12" customHeight="1">
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="12" customHeight="1">
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="12" customHeight="1">
       <c r="A20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1586,32 +2204,32 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="12" customHeight="1">
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="12" customHeight="1">
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="12" customHeight="1">
       <c r="A23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="12" customHeight="1">
       <c r="A24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="12" customHeight="1">
       <c r="A28" s="4"/>
       <c r="E28" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I30" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:I30">
     <sortState ref="A2:I30">
       <sortCondition ref="A1:A30"/>
     </sortState>
@@ -1623,14 +2241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2470195D-F5C3-4B94-9EDE-9B7BD4417B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="10.375" style="3" customWidth="1"/>
@@ -1642,7 +2260,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="12" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +2290,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="12" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -1686,7 +2304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="12" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1700,7 +2318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="12" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -1714,7 +2332,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1728,7 +2346,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
@@ -1742,7 +2360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
@@ -1758,7 +2376,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1772,7 +2390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
@@ -1786,7 +2404,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -1800,7 +2418,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
@@ -1814,7 +2432,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
@@ -1828,7 +2446,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -1842,7 +2460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>86</v>
       </c>
@@ -1856,7 +2474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>95</v>
       </c>
@@ -1870,7 +2488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -1884,7 +2502,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="12" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>99</v>
       </c>
@@ -1898,7 +2516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="12" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -1912,7 +2530,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="12" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
@@ -1926,7 +2544,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="12" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -1940,7 +2558,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="12" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -1954,7 +2572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="12" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -1968,7 +2586,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="12" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
@@ -1982,7 +2600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="12" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -1996,7 +2614,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="12" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>65</v>
       </c>
@@ -2010,7 +2628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="12" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -2024,7 +2642,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="12" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
@@ -2038,7 +2656,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="12" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
@@ -2052,7 +2670,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="12" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -2066,7 +2684,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="12" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -2080,7 +2698,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="12" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -2094,7 +2712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="12" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -2108,7 +2726,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="12" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -2122,7 +2740,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="12" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2136,7 +2754,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="12" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -2150,7 +2768,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="12" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
@@ -2164,7 +2782,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="12" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>98</v>
       </c>
@@ -2178,7 +2796,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="12" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -2193,7 +2811,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2201,316 +2819,309 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160E4BCB-9FED-42FD-9104-C2BD2D9E69FD}">
-  <dimension ref="B1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="C7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="C8" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="C9" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="C10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="2:7" ht="228" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="31" t="s">
+      <c r="C11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="G12" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1">
+      <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="40">
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
@@ -2526,54 +3137,1034 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" spans="2:7" ht="12" customHeight="1">
+      <c r="B19" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -808,7 +808,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>몸에 있는 사슬을 풀러서 두번 휘두른후 던진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1136,6 +1136,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,46 +1211,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,30 +1223,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2852,10 +2852,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="37" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2869,117 +2869,117 @@
       <c r="D3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="19"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="33" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2987,141 +2987,116 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
@@ -3137,6 +3112,31 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3178,10 +3178,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="42" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3195,117 +3195,117 @@
       <c r="D3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="40"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="40"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="40"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="40"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="40"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="33" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3313,143 +3313,116 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -3463,6 +3436,33 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3504,10 +3504,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="42" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3521,117 +3521,117 @@
       <c r="D3" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="40"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="40"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="40"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="40"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="40"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="40"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="33" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3639,143 +3639,116 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -3789,6 +3762,33 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3800,8 +3800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3830,10 +3830,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="49" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3841,122 +3841,122 @@
       <c r="B3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="47"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="47"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="47"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="47"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="17"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="17"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="47"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="47"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="47"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="47"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="17" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G12" s="47" t="s">
@@ -3967,188 +3967,152 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="48"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="49"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="49"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -4162,6 +4126,42 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -1139,77 +1139,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,27 +1223,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,39 +1564,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>25822</xdr:colOff>
+      <xdr:colOff>646043</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5670179</xdr:colOff>
+      <xdr:colOff>5176630</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2708325</xdr:rowOff>
+      <xdr:rowOff>2795906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="7" name="그림 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="36945" t="14197" r="19791" b="16543"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3667779" y="-481899"/>
-          <a:ext cx="4097855" cy="5644357"/>
+        <a:xfrm>
+          <a:off x="3511826" y="323022"/>
+          <a:ext cx="4530587" cy="4079710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2852,10 +2845,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="23" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2869,117 +2862,117 @@
       <c r="D3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="34"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="34"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="34"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="34"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="34"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="34"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="34"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="34"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="32" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="19" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2987,116 +2980,141 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
@@ -3112,31 +3130,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3178,10 +3171,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3195,117 +3188,117 @@
       <c r="D3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="43"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="43"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="43"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="32" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="19" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3313,116 +3306,140 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -3439,30 +3456,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3504,10 +3497,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3521,117 +3514,117 @@
       <c r="D3" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="43"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="43"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="43"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="32" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="19" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3639,116 +3632,140 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -3765,30 +3782,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3801,7 +3794,7 @@
   <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3830,10 +3823,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="44" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3847,119 +3840,119 @@
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="47"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="32" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="45" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3967,152 +3960,185 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="32"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="48"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="44"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="40" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -4129,39 +4155,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="보류" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="002_No.108" sheetId="5" r:id="rId4"/>
     <sheet name="003_Jake" sheetId="6" r:id="rId5"/>
     <sheet name="004_Don Cina" sheetId="7" r:id="rId6"/>
+    <sheet name="005_SAKURA " sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">디스크립션!$A$1:$I$1</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="245">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -800,15 +801,144 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>칼을 빠르게 5번 휘두른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>섹스킹 이즈 커밍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>몸에 있는 사슬을 풀러서 두번 휘두른후 던진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤볼 초사이언 변화 모션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠라</t>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>인간</t>
+  </si>
+  <si>
+    <t>저격총</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소년, 10대</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬세한 불한당</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>아너킹고철장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹시한 느낌의 작업공
+흑단발이며 용접 고글을 착용하고 있고, 
+의상은 철판을 이용한 길리슈트 같은 느낌으로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어난 공예품으로 인기가 높아 귀족들과 가까웠던 섬세한 불한당의 사쿠라는 다른 공방 사람들의 질투 어린 시선을 받기가 일상이었고, 그 질투는 보통 도를 넘어 사쿠라의 공방을 엉망으로 만들기 일쑤였다.
+사쿠라는 그녀의 '섬세한' 손기술로 도시에 녹아들 자신을 위한 옷을 만들었고, 질투로 가득 차 주름진 경쟁자들의 미간을 총알로 펴주기 시작했다.
+옷은 작업복에 비해 훨씬 불편하고 거추장스럽지만, 까다로운 접객을 하지 않아도 된다는 점에서 사쿠라는 '미간을 펴주는 일'을 주업으로 삼게 되었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle과 같은 상태지만 달리가 약간 뒤로 밀린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길리슈트가 아래로 불을 뿜는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸체가 약간 뒤로 밀리며 총을 약간 놀친다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅에 착지후 앉아 쏴 자세 길리슈트는 불이 꺼진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atttack_01과 같지만 총구방향 위로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atttack_01과 같지만 총구방향 아래로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atttack_01과 같지만 총구방향 상중으로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atttack_01과 같지만 총구방향 중하로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길리슈트에서 불이 꺼지면서 쓰러져 간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸체는 누워있는 상태 길리슈트가 굴러다닌다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기를 0.5초 모으는 모션을 취한 후 앞을 향해서 레이저빔 형태로 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길리 슈트가 앞을 향해 불을 뿜는다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지뢰 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지향 사격 자세에서 길리슈트로 인해 몸체가 약간 떠있는 상태</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1220,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,6 +1267,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1601,6 +1737,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2004392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861391" y="1606826"/>
+          <a:ext cx="2004392" cy="2004392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2238,7 +2423,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -2845,10 +3030,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2862,117 +3047,117 @@
       <c r="D3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="20"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2980,113 +3165,113 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -3142,7 +3327,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3171,16 +3356,16 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>138</v>
@@ -3188,117 +3373,117 @@
       <c r="D3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="41"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="41"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="41"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="41"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="41"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="41"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="41"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3306,113 +3491,113 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="34"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -3435,8 +3620,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -3456,6 +3639,8 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3468,7 +3653,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3497,16 +3682,16 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="42" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>169</v>
@@ -3514,117 +3699,117 @@
       <c r="D3" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="41"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="41"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="41"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="41"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="41"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="41"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="41"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3632,113 +3817,113 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="34"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -3761,8 +3946,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -3782,6 +3965,8 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3793,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3823,16 +4008,16 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>189</v>
@@ -3840,119 +4025,119 @@
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="45"/>
+      <c r="E3" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="45"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="45"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="45"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="45"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="45"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="45"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="45"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="45"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="47" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3960,149 +4145,149 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="48"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="49"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="34"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="35" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -4134,8 +4319,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -4155,6 +4338,441 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="2:7" ht="12" customHeight="1">
+      <c r="B19" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7" ht="12" customHeight="1">
+      <c r="B20" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="2:7" ht="12" customHeight="1">
+      <c r="B21" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="51"/>
+    </row>
+    <row r="22" spans="2:7" ht="12" customHeight="1">
+      <c r="B22" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="2:7" ht="12" customHeight="1">
+      <c r="B23" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="보류" sheetId="2" r:id="rId1"/>
@@ -563,10 +563,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몸체가 줄어들면서 옆으로 퍼졌다가 위로 늘어면서 옆은 날씬해 진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>바퀴는 고정, 몸이 전체적으로 뒤로 쏠림, 팔은 뒤로 움직인다. 몸체가 전체적으로 앞으로 쏠리면서 뒤로간 손이 앞으로 간다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -596,10 +592,6 @@
   </si>
   <si>
     <t>Walk_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -939,6 +931,14 @@
   </si>
   <si>
     <t>지향 사격 자세에서 길리슈트로 인해 몸체가 약간 떠있는 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle_BT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투태세 Idle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1220,7 +1220,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,6 +1275,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,46 +1347,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,10 +1359,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1372,7 +1375,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1442,32 +1445,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5648325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1416580</xdr:rowOff>
+      <xdr:colOff>5143592</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="22422" t="28750" r="23594" b="30417"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2964656" y="750094"/>
-          <a:ext cx="5553075" cy="2333361"/>
+          <a:off x="3348404" y="300404"/>
+          <a:ext cx="4667342" cy="4337539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1528,32 +1538,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>505558</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5648325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1416580</xdr:rowOff>
+      <xdr:colOff>5172900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="22422" t="28750" r="23594" b="30417"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2962275" y="735806"/>
-          <a:ext cx="5553075" cy="2319074"/>
+          <a:off x="3377712" y="300404"/>
+          <a:ext cx="4667342" cy="4337539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,16 +1716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>646043</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57979</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1051891</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5176630</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2795906</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>339586</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1724,8 +1741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3511826" y="323022"/>
-          <a:ext cx="4530587" cy="4079710"/>
+          <a:off x="1913282" y="0"/>
+          <a:ext cx="6965674" cy="6272461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2423,7 +2440,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3000,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3030,10 +3047,10 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3047,117 +3064,117 @@
       <c r="D3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="20" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="35" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3165,141 +3182,130 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="37" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="37" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="36"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
@@ -3315,6 +3321,31 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3326,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E13"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3356,16 +3387,16 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>165</v>
+      <c r="G2" s="44" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>138</v>
@@ -3373,117 +3404,117 @@
       <c r="D3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="43"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="43"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="43"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="20" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="35" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3491,141 +3522,130 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="37" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="36"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="52">
+        <v>43206</v>
+      </c>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="E3:E13"/>
@@ -3641,6 +3661,31 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,251 +3727,284 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>178</v>
+      <c r="G2" s="44" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="43"/>
+        <v>168</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="43"/>
+      <c r="C6" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="43"/>
+      <c r="C7" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="43"/>
+      <c r="C8" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="43"/>
+      <c r="C10" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="43"/>
+      <c r="C11" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="20" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>179</v>
+      <c r="G12" s="35" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="37" t="s">
+      <c r="B15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="37" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="34" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="44" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="37" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="30" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="36"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
@@ -3934,18 +4012,793 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="2:7" ht="12" customHeight="1">
+      <c r="B19" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="2:7" ht="12" customHeight="1">
+      <c r="B19" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7" ht="12" customHeight="1">
+      <c r="B20" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="2:7" ht="12" customHeight="1">
+      <c r="B21" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="2:7" ht="12" customHeight="1">
+      <c r="B22" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="2:7" ht="12" customHeight="1">
+      <c r="B23" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -3965,814 +4818,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G25"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:7" ht="12" customHeight="1">
-      <c r="B2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="12" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="2:7" ht="12" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="2:7" ht="12" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="2:7" ht="12" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="2:7" ht="12" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="2:7" ht="12" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="2:7" ht="12" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="2:7" ht="12" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="2:7" ht="12" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
-      <c r="B13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="51"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:7" ht="12" customHeight="1">
-      <c r="B2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="12" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="2:7" ht="12" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="2:7" ht="12" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="2:7" ht="12" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="2:7" ht="12" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="2:7" ht="12" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="2:7" ht="12" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="2:7" ht="12" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="2:7" ht="12" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
-      <c r="B13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="2:7" ht="12" customHeight="1">
-      <c r="B20" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="2:7" ht="12" customHeight="1">
-      <c r="B21" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="51"/>
-    </row>
-    <row r="22" spans="2:7" ht="12" customHeight="1">
-      <c r="B22" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" spans="2:7" ht="12" customHeight="1">
-      <c r="B23" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="51"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="51"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="보류" sheetId="2" r:id="rId1"/>
     <sheet name="디스크립션" sheetId="3" r:id="rId2"/>
     <sheet name="001_No.107" sheetId="4" r:id="rId3"/>
     <sheet name="002_No.108" sheetId="5" r:id="rId4"/>
-    <sheet name="003_Jake" sheetId="6" r:id="rId5"/>
-    <sheet name="004_Don Cina" sheetId="7" r:id="rId6"/>
-    <sheet name="005_SAKURA " sheetId="8" r:id="rId7"/>
+    <sheet name="003_Jake_B" sheetId="6" r:id="rId5"/>
+    <sheet name="003_Jake_R" sheetId="10" r:id="rId6"/>
+    <sheet name="004_Don Cina" sheetId="7" r:id="rId7"/>
+    <sheet name="005_SAKURA " sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">디스크립션!$A$1:$I$1</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="264">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -492,10 +493,6 @@
   </si>
   <si>
     <t>Die</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -583,10 +580,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>No.108 Attack 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Idle_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -607,23 +600,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>외형적으로 No.107과 같으나 녹슬지 않은 모습</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>증기 파이프가 줄었다 커졌다 하면서 증기 배출, 바퀴는 좌우로 움직인임, 나머지는 고정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸체 앞쪽으로 쏠린 후 원형 톱니가 돌아간다..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.107 Attack_01사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -703,10 +684,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attack_01과 같으나 폭탄만 다른 형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>돈 시나</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -939,6 +916,112 @@
   </si>
   <si>
     <t>전투태세 Idle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레퍼런스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI구조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PCHP = 0%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인식범위 안에 PC가 있음 
+and 타격범위 안에 PC있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 배회처리 이후
+2. 인식 범위 안에 PC가 있음 
+but 타격 범위 안에는 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인식범위 안에 PC있음
+ but 타격범위 안에 PC없음
+2. 타격범위 타일까지 Walk_01진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인식범위 안에 PC있음 
+but 타격범위 안에 PC없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Idle 1회 재생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Attack_01 1회 재생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. MobHP = 0%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Die 1회 재생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레퍼런스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸체 앞쪽으로 쏠린 후 원형 톱니가 돌아간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Idle 1~10중 랜덤회 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페퍼박스 리볼버</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Idle 1~10중 랜덤회 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Idle 1~10중 랜덤회 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Idle 1~10중 랜덤회 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walk_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle_BT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle_BT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한팔을 뒤로 빼며 앞을 경계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서부 총잡이 같은 자세로 리볼버를 쏜다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1213,6 +1296,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1220,7 +1346,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,10 +1401,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1320,9 +1461,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,6 +1483,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,11 +1519,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1400,16 +1547,383 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>893781</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2507428</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2000250</xdr:rowOff>
+      <xdr:rowOff>1092574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3372971" y="773206"/>
+          <a:ext cx="2003163" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1972235</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>773207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3975398</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2773457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4840941" y="2454089"/>
+          <a:ext cx="2003163" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1064558</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4146176</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>87835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1916205" y="6364942"/>
+          <a:ext cx="5098677" cy="4570187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1064558</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4146176</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>87835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1921808" y="6277536"/>
+          <a:ext cx="5091393" cy="4440199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862853</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2866016</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1182221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3731559" y="862853"/>
+          <a:ext cx="2003163" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2879911</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4883074</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1182221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5748617" y="862853"/>
+          <a:ext cx="2003163" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1792941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3796208</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1473574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4661647" y="1154206"/>
+          <a:ext cx="2003267" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1064558</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4146176</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>87835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1921808" y="6277536"/>
+          <a:ext cx="5091393" cy="4440199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>788519</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4778219</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2487707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1432,8 +1946,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="1666875"/>
-          <a:ext cx="2001062" cy="2000250"/>
+          <a:off x="3657225" y="184899"/>
+          <a:ext cx="3989700" cy="3983690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1444,20 +1958,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1064558</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5143592</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>87924</xdr:rowOff>
+      <xdr:colOff>4146176</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>87835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1476,8 +1990,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3348404" y="300404"/>
-          <a:ext cx="4667342" cy="4337539"/>
+          <a:off x="1921808" y="6277536"/>
+          <a:ext cx="5091393" cy="4440199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2630462</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1215433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3902568</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1869773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1567466">
+          <a:off x="5499168" y="2896315"/>
+          <a:ext cx="1272106" cy="654340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1489,186 +2047,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>893781</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2000250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="1638300"/>
-          <a:ext cx="1998681" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>505558</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5172900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>87924</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3377712" y="300404"/>
-          <a:ext cx="4667342" cy="4337539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>893885</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2000250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="851647" y="1680882"/>
-          <a:ext cx="2003267" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5663711</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1651532</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="15625" t="16914" r="12639" b="20000"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2901462" y="520215"/>
-          <a:ext cx="5634403" cy="2787202"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1754,7 +2133,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2440,7 +2819,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -3015,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3045,13 +3424,13 @@
         <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>147</v>
+      <c r="G2" s="43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
@@ -3059,255 +3438,532 @@
         <v>75</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36"/>
+      <c r="C6" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="36"/>
+      <c r="C7" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="36"/>
+      <c r="C8" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="36"/>
+      <c r="C9" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="36"/>
+      <c r="C10" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="36"/>
+      <c r="C11" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="34" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>149</v>
+      <c r="G12" s="39" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24">
+        <v>43206</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="52">
+      <c r="E16" s="28"/>
+      <c r="F16" s="24">
         <v>43206</v>
       </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="24">
+        <v>43206</v>
+      </c>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="24">
+        <v>43206</v>
+      </c>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="52">
+      <c r="C19" s="21"/>
+      <c r="D19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="24">
         <v>43206</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="28" t="s">
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="24">
+        <v>43206</v>
+      </c>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
+        <v>3</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21">
+        <v>4</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21">
+        <v>5</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21">
+        <v>6</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21">
+        <v>7</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21">
+        <v>8</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21">
+        <v>9</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21">
+        <v>10</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="59">
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C13:D13"/>
@@ -3321,6 +3977,7 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F14:G14"/>
@@ -3335,30 +3992,50 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3385,267 +4062,545 @@
         <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>163</v>
+      <c r="G2" s="51" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="45"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="45"/>
+      <c r="C6" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="45"/>
+      <c r="C8" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="34" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>148</v>
+      <c r="G12" s="39" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="52">
+      <c r="B15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24">
         <v>43206</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24">
+        <v>43206</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="24">
+        <v>43206</v>
+      </c>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="24">
+        <v>43206</v>
+      </c>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="52">
+      <c r="C19" s="21"/>
+      <c r="D19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="24">
         <v>43206</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="28" t="s">
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="24">
+        <v>43206</v>
+      </c>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
+        <v>3</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21">
+        <v>4</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="52">
-        <v>43206</v>
-      </c>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21">
+        <v>5</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21">
+        <v>6</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21">
+        <v>7</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21">
+        <v>8</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21">
+        <v>9</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21">
+        <v>10</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="59">
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="E3:E13"/>
@@ -3657,35 +4612,54 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3695,10 +4669,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G22"/>
+  <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3725,253 +4699,533 @@
         <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>176</v>
+      <c r="G2" s="51" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="45"/>
+        <v>163</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="45"/>
+      <c r="C6" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="45"/>
+      <c r="C8" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="34" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>177</v>
+      <c r="G12" s="39" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="36"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
+        <v>3</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21">
+        <v>4</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21">
+        <v>5</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21">
+        <v>6</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21">
+        <v>7</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21">
+        <v>8</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21">
+        <v>9</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21">
+        <v>10</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="59">
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="E3:E13"/>
@@ -3983,10 +5237,10 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -4003,15 +5257,34 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4020,6 +5293,631 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G52"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21">
+        <v>3</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21">
+        <v>4</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21">
+        <v>5</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21">
+        <v>6</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21">
+        <v>7</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21">
+        <v>8</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21">
+        <v>9</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21">
+        <v>10</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G25"/>
   <sheetViews>
@@ -4051,288 +5949,288 @@
         <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>195</v>
+      <c r="G2" s="54" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="48"/>
+      <c r="E3" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="48"/>
+      <c r="C4" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="48"/>
+      <c r="C8" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="48"/>
+      <c r="C9" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="48"/>
+      <c r="C10" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="48"/>
+      <c r="C11" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="48" t="s">
-        <v>194</v>
+      <c r="G12" s="55" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="2:7" ht="12" customHeight="1">
+      <c r="B19" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="42" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="46"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -4392,7 +6290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G29"/>
   <sheetViews>
@@ -4424,336 +6322,336 @@
         <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>219</v>
+      <c r="G2" s="54" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="48"/>
+      <c r="E3" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="48"/>
+      <c r="C4" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="48"/>
+      <c r="C7" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="48"/>
+      <c r="C8" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="48"/>
+      <c r="C9" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="48"/>
+      <c r="C10" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="48"/>
+      <c r="C11" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="48" t="s">
-        <v>220</v>
+      <c r="G12" s="55" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="2:7" ht="12" customHeight="1">
+      <c r="B19" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7" ht="12" customHeight="1">
+      <c r="B20" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="2:7" ht="12" customHeight="1">
+      <c r="B21" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="53"/>
+    </row>
+    <row r="22" spans="2:7" ht="12" customHeight="1">
+      <c r="B22" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="28" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="2:7" ht="12" customHeight="1">
+      <c r="B23" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="42" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7" ht="12" customHeight="1">
-      <c r="B20" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="42" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="2:7" ht="12" customHeight="1">
-      <c r="B21" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="42" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="2:7" ht="12" customHeight="1">
-      <c r="B22" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="42" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" spans="2:7" ht="12" customHeight="1">
-      <c r="B23" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="46"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="46"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="46"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -4762,6 +6660,7 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
@@ -4774,7 +6673,6 @@
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F20:G20"/>
@@ -4797,8 +6695,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -4818,6 +6714,8 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChunJ\Desktop\울프팩\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1545" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1548" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="보류" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="251">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -708,20 +708,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>중화식칼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>한 때 배고픈 돼지들과 잿빛 공방 골목에서 열리던 '싸움 쇼'에서 돈 시나는 최고의 참가자였다. 관중들은 돈 시나의 호쾌한 주먹에 환호했고, 돈 시나는 이를 잘 알고 있었다.
 어느 날 평소대로의 몫을 챙기기 위해 만난 술집에서 돈 시나의 친구들은 그를 온갖 무기들로 환영했고. 거기서 돈 시나는 어느 때 보다도 화려한 움직임으로 마지막 쇼를 장식했다.
 이제 돈 시나는 쇼와 함께 고정 수입을 잃어버렸지만, 관객이 없는 쇼를 위한 후원은 마다하지 않는다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>프로레슬러같은 근육질몸에 사슬을 두르고 있고 한손에는 식칼을 가지고 있음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -754,10 +746,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오른팔을 크게 휘두르며 식칼로 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 무장을 땅에 떨어트리며 무릎을 꿇는다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -766,19 +754,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미식축구 태클 자세를 취한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섹스킹 이즈 커밍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>몸에 있는 사슬을 풀러서 두번 휘두른후 던진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드래곤볼 초사이언 변화 모션</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -839,78 +815,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attack_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack_04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack_05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle과 같은 상태지만 달리가 약간 뒤로 밀린다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>길리슈트가 아래로 불을 뿜는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸체가 약간 뒤로 밀리며 총을 약간 놀친다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅에 착지후 앉아 쏴 자세 길리슈트는 불이 꺼진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atttack_01과 같지만 총구방향 위로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atttack_01과 같지만 총구방향 아래로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atttack_01과 같지만 총구방향 상중으로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atttack_01과 같지만 총구방향 중하로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>길리슈트에서 불이 꺼지면서 쓰러져 간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸체는 누워있는 상태 길리슈트가 굴러다닌다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기를 0.5초 모으는 모션을 취한 후 앞을 향해서 레이저빔 형태로 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>길리 슈트가 앞을 향해 불을 뿜는다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지뢰 설치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지향 사격 자세에서 길리슈트로 인해 몸체가 약간 떠있는 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Idle_BT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -989,23 +893,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>페퍼박스 리볼버</t>
+    <t>1. Idle 1~10중 랜덤회 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬링</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1. Idle 1~10중 랜덤회 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Idle 1~10중 랜덤회 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Idle 1~10중 랜덤회 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walk_01</t>
+    <t>Jake_B와 유사하나
+허리에 천으로 된 힙색하나 달고 있다.
+무기는 슬링</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1013,15 +911,70 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>눈이 벌건 상태에서 슬링을 천천히 돌린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬링을 한번 빠르게 회전후 언더쓰로우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 배회처리 이후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 배회처리 이후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주먹, 쇠사슬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 검은 멧돼지 수인
+2. 근육질 몸에 쇠사슬
+3. 상의 탈의
+4. 가죽바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨로 상대방을 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dameged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엎드려 쏴 자세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Idle_BT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>한팔을 뒤로 빼며 앞을 경계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서부 총잡이 같은 자세로 리볼버를 쏜다</t>
+    <t>두발은 앞으로 향한 상태, 꼬리를 세게 치며 뒤로 이동 하는 모션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉아 쏴 자세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지뢰 세개를 흩뿌린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">길리슈트가 산산히 떨어져 나가는 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1064,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,6 +1081,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1346,7 +1305,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1401,81 +1360,93 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1506,6 +1477,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1519,11 +1508,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1915,15 +1910,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>788519</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>72840</xdr:rowOff>
+      <xdr:colOff>340284</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4778219</xdr:colOff>
+      <xdr:colOff>2886635</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2487707</xdr:rowOff>
+      <xdr:rowOff>1797855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1946,8 +1941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657225" y="184899"/>
-          <a:ext cx="3989700" cy="3983690"/>
+          <a:off x="3200025" y="924488"/>
+          <a:ext cx="2546351" cy="2513908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2003,19 +1998,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2630462</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1215433</xdr:rowOff>
+      <xdr:colOff>3155577</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3902568</xdr:colOff>
+      <xdr:colOff>4778189</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1869773</xdr:rowOff>
+      <xdr:rowOff>216553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2033,9 +2028,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="1567466">
-          <a:off x="5499168" y="2896315"/>
-          <a:ext cx="1272106" cy="654340"/>
+        <a:xfrm>
+          <a:off x="6015318" y="779929"/>
+          <a:ext cx="1622612" cy="1077165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,25 +2047,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1064558</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2004393</xdr:rowOff>
+      <xdr:colOff>4146176</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>87835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2083,45 +2078,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="861392" y="1606827"/>
-          <a:ext cx="2004392" cy="2004392"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1051891</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>339586</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>126765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="36945" t="14197" r="19791" b="16543"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1913282" y="0"/>
-          <a:ext cx="6965674" cy="6272461"/>
+          <a:off x="1917998" y="6186096"/>
+          <a:ext cx="5093298" cy="4882159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2487,10 +2445,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
@@ -2822,15 +2780,15 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="12.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -3396,19 +3354,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G25"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -3424,12 +3382,12 @@
         <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="47" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3443,115 +3401,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="40"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="40"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="40"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="43" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3559,407 +3517,407 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24">
+      <c r="E15" s="32"/>
+      <c r="F15" s="27">
         <v>43206</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="24">
+      <c r="E16" s="32"/>
+      <c r="F16" s="27">
         <v>43206</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="B17" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="27">
+        <v>43206</v>
+      </c>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="27">
+        <v>43206</v>
+      </c>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="27">
+        <v>43206</v>
+      </c>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="27">
+        <v>43206</v>
+      </c>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24">
+        <v>2</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="24">
-        <v>43206</v>
-      </c>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="24">
-        <v>43206</v>
-      </c>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="24">
-        <v>43206</v>
-      </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="24">
-        <v>43206</v>
-      </c>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
-        <v>2</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24">
         <v>3</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>244</v>
+      <c r="G29" s="25" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24">
         <v>4</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>243</v>
+      <c r="G32" s="24" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24">
         <v>5</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>247</v>
+      <c r="G35" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24">
         <v>6</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>246</v>
+      <c r="G38" s="25" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24">
         <v>7</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>249</v>
+      <c r="G41" s="24" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24">
         <v>8</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>248</v>
+      <c r="G44" s="24" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24">
         <v>9</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>250</v>
+      <c r="G47" s="24" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24">
         <v>10</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>251</v>
+      <c r="G50" s="24" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -4034,19 +3992,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -4062,18 +4020,18 @@
         <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="55" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>137</v>
@@ -4081,115 +4039,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="52"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="52"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="52"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="52"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="52"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="43" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4197,407 +4155,407 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24">
+      <c r="E15" s="32"/>
+      <c r="F15" s="27">
         <v>43206</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="24">
+      <c r="E16" s="32"/>
+      <c r="F16" s="27">
         <v>43206</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="27">
+        <v>43206</v>
+      </c>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="27">
+        <v>43206</v>
+      </c>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="27">
+        <v>43206</v>
+      </c>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="27">
+        <v>43206</v>
+      </c>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24">
+        <v>2</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="24">
-        <v>43206</v>
-      </c>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="24">
-        <v>43206</v>
-      </c>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="24">
-        <v>43206</v>
-      </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="24">
-        <v>43206</v>
-      </c>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
-        <v>2</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24">
         <v>3</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>244</v>
+      <c r="G29" s="25" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24">
         <v>4</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>243</v>
+      <c r="G32" s="24" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24">
         <v>5</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>247</v>
+      <c r="G35" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24">
         <v>6</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>246</v>
+      <c r="G38" s="25" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24">
         <v>7</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>249</v>
+      <c r="G41" s="24" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24">
         <v>8</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>248</v>
+      <c r="G44" s="24" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24">
         <v>9</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>250</v>
+      <c r="G47" s="24" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24">
         <v>10</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>251</v>
+      <c r="G50" s="24" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -4671,19 +4629,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E17"/>
+    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -4701,16 +4659,16 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="55" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>162</v>
@@ -4718,115 +4676,115 @@
       <c r="D3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="52"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="52"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="52"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="52"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="52"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="43" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4834,395 +4792,395 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27" t="s">
+      <c r="B16" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
+      <c r="B17" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="49" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="25"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>242</v>
+      <c r="B22" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57">
         <v>1</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>257</v>
+      <c r="G23" s="57" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57">
         <v>2</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>245</v>
+      <c r="G26" s="58" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57">
         <v>3</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>244</v>
+      <c r="G29" s="58" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57">
         <v>4</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>243</v>
+      <c r="G32" s="57" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57">
         <v>5</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>247</v>
+      <c r="G35" s="58" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21">
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57">
         <v>6</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>246</v>
+      <c r="G38" s="58" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57">
         <v>7</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>249</v>
+      <c r="G41" s="57" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57">
         <v>8</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>248</v>
+      <c r="G44" s="57" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21">
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57">
         <v>9</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>250</v>
+      <c r="G47" s="57" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21">
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57">
         <v>10</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>251</v>
+      <c r="G50" s="57" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -5247,15 +5205,15 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
@@ -5288,7 +5246,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5296,19 +5255,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -5317,141 +5276,141 @@
       <c r="B2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>171</v>
+      <c r="G2" s="61" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="52"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="52"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="52"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="52"/>
+      <c r="C10" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="52"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="43" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5459,401 +5418,398 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
+      <c r="B17" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>242</v>
+      <c r="B22" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57">
         <v>1</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>258</v>
+      <c r="G23" s="57" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57">
         <v>2</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>245</v>
+      <c r="G26" s="58" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57">
         <v>3</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>244</v>
+      <c r="G29" s="58" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57">
         <v>4</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>243</v>
+      <c r="G32" s="57" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57">
         <v>5</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>247</v>
+      <c r="G35" s="58" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21">
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57">
         <v>6</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>246</v>
+      <c r="G38" s="58" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57">
         <v>7</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>249</v>
+      <c r="G41" s="57" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57">
         <v>8</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>248</v>
+      <c r="G44" s="57" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21">
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57">
         <v>9</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>250</v>
+      <c r="G47" s="57" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21">
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57">
         <v>10</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>251</v>
+      <c r="G50" s="57" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="E3:E13"/>
@@ -5872,6 +5828,9 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -5919,21 +5878,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G25"/>
+  <dimension ref="B1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="F21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -5951,16 +5910,16 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="54" t="s">
-        <v>189</v>
+      <c r="G2" s="64" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>181</v>
@@ -5968,272 +5927,538 @@
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="55"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="55"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="55"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="55"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="55"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="55"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="55"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="55"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>188</v>
+      <c r="G12" s="65" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="63"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="49" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="53"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24">
+        <v>1</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24">
+        <v>2</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24">
+        <v>3</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24">
+        <v>4</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24">
+        <v>5</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24">
+        <v>6</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24">
+        <v>7</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24">
+        <v>8</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24">
+        <v>9</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24">
+        <v>10</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="64">
     <mergeCell ref="F2:F11"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="E3:E13"/>
@@ -6245,16 +6470,19 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -6264,25 +6492,37 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E54"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6292,21 +6532,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G29"/>
+  <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -6324,377 +6564,305 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="54" t="s">
-        <v>213</v>
+      <c r="G2" s="64" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="55"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="55"/>
+      <c r="C4" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="55"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="55"/>
+      <c r="C7" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="55"/>
+      <c r="C8" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="55"/>
+      <c r="C9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="55"/>
+      <c r="C10" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="38" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>214</v>
+      <c r="G12" s="65" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="63"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1">
+      <c r="B18" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7" ht="12" customHeight="1">
-      <c r="B20" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="2:7" ht="12" customHeight="1">
-      <c r="B21" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="53"/>
-    </row>
-    <row r="22" spans="2:7" ht="12" customHeight="1">
-      <c r="B22" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="2:7" ht="12" customHeight="1">
-      <c r="B23" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="53"/>
+      <c r="B19" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="63"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="63"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="53"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B29:C29"/>
+  <mergeCells count="49">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1548" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1548" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="보류" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="003_Jake_R" sheetId="10" r:id="rId6"/>
     <sheet name="004_Don Cina" sheetId="7" r:id="rId7"/>
     <sheet name="005_SAKURA " sheetId="8" r:id="rId8"/>
+    <sheet name="006_Cleaner" sheetId="11" r:id="rId9"/>
+    <sheet name="006_Bad_Cleaner" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">디스크립션!$A$1:$I$1</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="277">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -975,6 +977,115 @@
   </si>
   <si>
     <t xml:space="preserve">길리슈트가 산산히 떨어져 나가는 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아너킹의고철장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아너킹의 고철장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗자루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle_BT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDC에 소속된 청소용역 인부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥을 빗자루로 쓴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 찌르듯 빗자루로 찌른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 청소부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad Cleaner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 물을 뿌린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스를 앞으로 향하게 하고 펌프질을 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗자루가 먼저 놓쳐서 땅에 박힌다. 청소부가 먼저 허물어 지기 시작한 후 빗자루도 기우뚱하면서 쓰러진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몸체와 빗자루가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 하이에나 수인
+2. 상의 탈의
+3. 멜빵바지
+4. 빗자루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT상태에서 다리만 움직여서 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗자루를 거꾸로 양손으로 든다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스를 정면으로 뿌린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱크가 깨지면서 보라색 기화가 수중으로 나라간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 하이에나 수인
+2. 멜빵 힙합 청바지
+3. 농약 살포기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농약 살포기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1305,7 +1416,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,52 +1492,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1465,11 +1540,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1477,17 +1597,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1495,7 +1615,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1511,14 +1634,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2046,20 +2172,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1064558</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4146176</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>87835</xdr:rowOff>
+      <xdr:colOff>2557929</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>546847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2078,8 +2204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1917998" y="6186096"/>
-          <a:ext cx="5093298" cy="4882159"/>
+          <a:off x="2859741" y="268941"/>
+          <a:ext cx="2557929" cy="1918447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,6 +2255,280 @@
         <a:xfrm>
           <a:off x="861391" y="1606826"/>
           <a:ext cx="2004392" cy="2004392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2648174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>797859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3173505" y="493058"/>
+          <a:ext cx="2334410" cy="1945342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2938673</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5142378</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1002367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798414" y="860613"/>
+          <a:ext cx="2203705" cy="1782295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1183342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2160495</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2743202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460376" y="2823883"/>
+          <a:ext cx="1559860" cy="1559860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2648174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>797859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178884" y="490817"/>
+          <a:ext cx="2334410" cy="1945342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2938673</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5142378</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1002367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5803793" y="858372"/>
+          <a:ext cx="2203705" cy="1782295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1766048</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1030943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3702424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4625789" y="2671484"/>
+          <a:ext cx="1936376" cy="1936376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -2451,7 +2851,7 @@
     <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" customHeight="1">
+    <row r="1" spans="1:10" ht="12" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2881,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1">
+    <row r="2" spans="1:10" ht="12" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
@@ -2499,11 +2899,8 @@
         <v>107</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="L2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1">
+    </row>
+    <row r="3" spans="1:10" ht="12" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -2522,7 +2919,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1">
+    <row r="4" spans="1:10" ht="12" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>94</v>
       </c>
@@ -2541,7 +2938,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="12" customHeight="1">
+    <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
@@ -2560,7 +2957,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1">
+    <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -2579,7 +2976,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1">
+    <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>71</v>
       </c>
@@ -2598,7 +2995,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1">
+    <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -2617,7 +3014,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1">
+    <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>103</v>
       </c>
@@ -2636,7 +3033,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1">
+    <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -2655,7 +3052,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1">
+    <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
@@ -2673,7 +3070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12" customHeight="1">
+    <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>104</v>
       </c>
@@ -2686,7 +3083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12" customHeight="1">
+    <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>105</v>
       </c>
@@ -2700,7 +3097,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1">
+    <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>106</v>
       </c>
@@ -2714,10 +3111,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12" customHeight="1">
+    <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1">
+    <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="I16" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1">
@@ -2769,6 +3166,628 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G52"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="71"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="69"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="72"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="73"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56">
+        <v>1</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56">
+        <v>2</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56">
+        <v>3</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56">
+        <v>4</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56">
+        <v>5</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56">
+        <v>6</v>
+      </c>
+      <c r="G38" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56">
+        <v>7</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56">
+        <v>8</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56">
+        <v>9</v>
+      </c>
+      <c r="G47" s="56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56">
+        <v>10</v>
+      </c>
+      <c r="G50" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3354,8 +4373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3384,10 +4403,10 @@
       <c r="E2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="35" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3401,115 +4420,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="44"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="44"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="44"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="44"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="44"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="44"/>
+      <c r="C8" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="44"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="44"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="44"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="42" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="31" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3517,121 +4536,121 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="27">
+      <c r="E15" s="48"/>
+      <c r="F15" s="49">
         <v>43206</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="27">
+      <c r="E16" s="48"/>
+      <c r="F16" s="49">
         <v>43206</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="27">
+      <c r="E17" s="48"/>
+      <c r="F17" s="49">
         <v>43206</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="27">
+      <c r="E18" s="48"/>
+      <c r="F18" s="49">
         <v>43206</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="27">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49">
         <v>43206</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="27">
+      <c r="E20" s="48"/>
+      <c r="F20" s="49">
         <v>43206</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
       <c r="F22" s="23" t="s">
         <v>217</v>
       </c>
@@ -3640,324 +4659,293 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56">
         <v>1</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="56" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56">
         <v>2</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="57" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24">
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56">
         <v>3</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="57" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56">
         <v>4</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="56" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56">
         <v>5</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="57" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56">
         <v>6</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="57" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24">
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56">
         <v>7</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="56" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24">
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56">
         <v>8</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="56" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24">
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56">
         <v>9</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="56" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24">
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56">
         <v>10</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="G23:G25"/>
@@ -3974,12 +4962,43 @@
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3992,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:G43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="J12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4022,10 +5041,10 @@
       <c r="E2" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="58" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4039,115 +5058,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="56"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="56"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="56"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="56"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="56"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="56"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="56"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="42" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="31" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4155,121 +5174,121 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="27">
+      <c r="E15" s="48"/>
+      <c r="F15" s="49">
         <v>43206</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="27">
+      <c r="E16" s="48"/>
+      <c r="F16" s="49">
         <v>43206</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="27">
+      <c r="E17" s="48"/>
+      <c r="F17" s="49">
         <v>43206</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="27">
+      <c r="E18" s="61"/>
+      <c r="F18" s="49">
         <v>43206</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="27">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49">
         <v>43206</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="27">
+      <c r="E20" s="48"/>
+      <c r="F20" s="49">
         <v>43206</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
       <c r="F22" s="23" t="s">
         <v>217</v>
       </c>
@@ -4278,324 +5297,293 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56">
         <v>1</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="56" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56">
         <v>2</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="57" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24">
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56">
         <v>3</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="57" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56">
         <v>4</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="56" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56">
         <v>5</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="57" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56">
         <v>6</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="57" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24">
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56">
         <v>7</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="56" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24">
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56">
         <v>8</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="56" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24">
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56">
         <v>9</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="56" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24">
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56">
         <v>10</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -4612,12 +5600,43 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4629,8 +5648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4659,10 +5678,10 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="58" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4676,115 +5695,115 @@
       <c r="D3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="56"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="56"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="56"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="56"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="56"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="42" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="31" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4792,109 +5811,109 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="22" t="s">
         <v>217</v>
       </c>
@@ -4903,324 +5922,293 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62">
         <v>1</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="62" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62">
         <v>2</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="63" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62">
         <v>3</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="63" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62">
         <v>4</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="62" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57">
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62">
         <v>5</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="63" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62">
         <v>6</v>
       </c>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="63" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57">
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62">
         <v>7</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="62" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57">
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62">
         <v>8</v>
       </c>
-      <c r="G44" s="57" t="s">
+      <c r="G44" s="62" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57">
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62">
         <v>9</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="62" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57">
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62">
         <v>10</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="G50" s="62" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -5237,12 +6225,43 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5255,8 +6274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5285,10 +6304,10 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="64" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5302,115 +6321,115 @@
       <c r="D3" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="62"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="62"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="62"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="62"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="62"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="62"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="62"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="42" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="31" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5418,109 +6437,109 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="59" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="22" t="s">
         <v>217</v>
       </c>
@@ -5529,320 +6548,297 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62">
         <v>1</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="62" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62">
         <v>2</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="63" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62">
         <v>3</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="63" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62">
         <v>4</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="62" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57">
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62">
         <v>5</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="63" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62">
         <v>6</v>
       </c>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="63" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57">
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62">
         <v>7</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="62" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57">
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62">
         <v>8</v>
       </c>
-      <c r="G44" s="57" t="s">
+      <c r="G44" s="62" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57">
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62">
         <v>9</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="62" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57">
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62">
         <v>10</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="G50" s="62" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -5859,16 +6855,39 @@
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="F35:F37"/>
     <mergeCell ref="G35:G37"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5880,8 +6899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="F21:G21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5910,10 +6929,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="68" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5927,115 +6946,115 @@
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="65"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="65"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="65"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="65"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="69"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="65"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="65"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="42" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="69" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6043,133 +7062,133 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="68"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="63"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="63"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="23" t="s">
         <v>217</v>
       </c>
@@ -6178,329 +7197,293 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56">
         <v>1</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="56" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24">
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56">
         <v>2</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="57" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56">
         <v>3</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="57" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56">
         <v>4</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="56" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56">
         <v>5</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="57" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24">
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56">
         <v>6</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="57" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24">
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56">
         <v>7</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="56" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24">
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56">
         <v>8</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="56" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56">
         <v>9</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="56" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24">
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56">
         <v>10</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E54"/>
     <mergeCell ref="F25:F27"/>
@@ -6517,12 +7500,48 @@
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="F43:F45"/>
     <mergeCell ref="G43:G45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6535,7 +7554,7 @@
   <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E13"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -6564,10 +7583,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="68" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6581,117 +7600,117 @@
       <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="65"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="65"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="65"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="65"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="69"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="65"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="65"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="65"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="65"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="42" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="69" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6699,142 +7718,175 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="68"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="63"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="63"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="44"/>
+      <c r="D24" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -6851,21 +7903,617 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="69"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="71"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="69"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="72"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="73"/>
+    </row>
+    <row r="17" spans="2:7" ht="12" customHeight="1">
+      <c r="B17" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56">
+        <v>1</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56">
+        <v>2</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56">
+        <v>3</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56">
+        <v>4</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56">
+        <v>5</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56">
+        <v>6</v>
+      </c>
+      <c r="G38" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56">
+        <v>7</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56">
+        <v>8</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56">
+        <v>9</v>
+      </c>
+      <c r="G47" s="56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56">
+        <v>10</v>
+      </c>
+      <c r="G50" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -6879,11 +8527,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChunJ\Desktop\울프팩\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1548" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1548" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="보류" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="005_SAKURA " sheetId="8" r:id="rId8"/>
     <sheet name="006_Cleaner" sheetId="11" r:id="rId9"/>
     <sheet name="006_Bad_Cleaner" sheetId="12" r:id="rId10"/>
+    <sheet name="007_Bad_Cleaner (2)" sheetId="13" r:id="rId11"/>
+    <sheet name="008_Explosion_wheel" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">디스크립션!$A$1:$I$1</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="301">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1086,6 +1088,105 @@
   </si>
   <si>
     <t>농약 살포기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDC에 소속된 청소용역 인부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 어린쥐 기수
+2. 어린쥐 장전 및 발사
+3. 대형 슬링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬링,. 나사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐한마리가 새총고무줄을 땡김, 빨간색 깃발을 들은 쥐가 깃발을 뒤로 향하게 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고무줄 땡긴 쥐가 고무줄을 놓으면서 넘어진다, 깃발을 든쥐가 앞으로 깃발을 휘두른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새총이 부서지면서 쥐들이 도망</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새총잔해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린쥐돌이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mingkies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발바퀴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion wheel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자폭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 자전거 바퀴
+2. 가운데에 시한폭탄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기믹형 몹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉘여져 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸체로 굴러간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멈춰서서 빨간색과 원래색으로 반짝거린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발을 일으킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔해가 여기저기 널부러진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1416,7 +1517,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1504,6 +1605,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,56 +1701,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1597,17 +1713,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1615,10 +1731,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1634,17 +1747,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1790,6 +1900,99 @@
         <a:xfrm>
           <a:off x="1916205" y="6364942"/>
           <a:ext cx="5098677" cy="4570187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367553</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3639671</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2222901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3227294" y="717175"/>
+          <a:ext cx="3272118" cy="3146267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1272989</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2621387</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1136803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4132730" y="1766047"/>
+          <a:ext cx="1348398" cy="1011297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2540,6 +2743,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2564281</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1438143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2877671" y="564776"/>
+          <a:ext cx="2546351" cy="2513908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2725271</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5029201</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>447564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5585012" y="878542"/>
+          <a:ext cx="2303930" cy="1209563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2832847</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>986117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5011272</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2438400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5692588" y="2626658"/>
+          <a:ext cx="2178425" cy="1452283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -3203,10 +3543,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="72" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3220,115 +3560,115 @@
       <c r="D3" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="69"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="69"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="69"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="69"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="69"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="69"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="69"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="69"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="69"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="73" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3336,105 +3676,105 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="72"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="73"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="50"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="73"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="24" t="s">
         <v>217</v>
       </c>
@@ -3443,299 +3783,324 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>4</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32">
         <v>6</v>
       </c>
-      <c r="G38" s="57" t="s">
+      <c r="G38" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>7</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>8</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32">
         <v>9</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>10</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -3746,25 +4111,1207 @@
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="71"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="71"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32">
+        <v>2</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32">
+        <v>3</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32">
+        <v>4</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32">
+        <v>5</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32">
+        <v>6</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32">
+        <v>7</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32">
+        <v>8</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32">
+        <v>9</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32">
+        <v>10</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E50"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="F30:F32"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="2:7" ht="12" customHeight="1">
+      <c r="B16" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="71"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32">
+        <v>2</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32">
+        <v>3</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
+        <v>4</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32">
+        <v>5</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
+        <v>6</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32">
+        <v>7</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32">
+        <v>8</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32">
+        <v>9</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32">
+        <v>10</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E51"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:F13"/>
@@ -4403,10 +5950,10 @@
       <c r="E2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="55" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4420,115 +5967,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="32"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="32"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="51" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4536,121 +6083,121 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49">
+      <c r="E15" s="40"/>
+      <c r="F15" s="35">
         <v>43206</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49">
+      <c r="E16" s="40"/>
+      <c r="F16" s="35">
         <v>43206</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49">
+      <c r="E17" s="40"/>
+      <c r="F17" s="35">
         <v>43206</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49">
+      <c r="E18" s="40"/>
+      <c r="F18" s="35">
         <v>43206</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49">
+      <c r="E19" s="40"/>
+      <c r="F19" s="35">
         <v>43206</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49">
+      <c r="E20" s="40"/>
+      <c r="F20" s="35">
         <v>43206</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="23" t="s">
         <v>217</v>
       </c>
@@ -4659,293 +6206,324 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="32" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="33" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>4</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32">
         <v>6</v>
       </c>
-      <c r="G38" s="57" t="s">
+      <c r="G38" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>7</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>8</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32">
         <v>9</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>10</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="G23:G25"/>
@@ -4962,43 +6540,12 @@
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F47:F49"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5041,10 +6588,10 @@
       <c r="E2" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="63" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5058,115 +6605,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="59"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="59"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="59"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="59"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="59"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="59"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="59"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="59"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="51" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5174,121 +6721,121 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49">
+      <c r="E15" s="40"/>
+      <c r="F15" s="35">
         <v>43206</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49">
+      <c r="E16" s="40"/>
+      <c r="F16" s="35">
         <v>43206</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49">
+      <c r="E17" s="40"/>
+      <c r="F17" s="35">
         <v>43206</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="60" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="49">
+      <c r="E18" s="62"/>
+      <c r="F18" s="35">
         <v>43206</v>
       </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49">
+      <c r="E19" s="40"/>
+      <c r="F19" s="35">
         <v>43206</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49">
+      <c r="E20" s="40"/>
+      <c r="F20" s="35">
         <v>43206</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="23" t="s">
         <v>217</v>
       </c>
@@ -5297,293 +6844,324 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>4</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32">
         <v>6</v>
       </c>
-      <c r="G38" s="57" t="s">
+      <c r="G38" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>7</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>8</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32">
         <v>9</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>10</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -5600,43 +7178,12 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5678,10 +7225,10 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="63" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5695,45 +7242,45 @@
       <c r="D3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="59"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="59"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="59"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
@@ -5743,9 +7290,9 @@
         <v>257</v>
       </c>
       <c r="D7" s="42"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="59"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
@@ -5755,9 +7302,9 @@
         <v>167</v>
       </c>
       <c r="D8" s="42"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="59"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
@@ -5767,9 +7314,9 @@
         <v>168</v>
       </c>
       <c r="D9" s="42"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="59"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
@@ -5779,31 +7326,31 @@
         <v>169</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="59"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="59"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="51" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5811,109 +7358,109 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="50"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="50"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="60" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="50"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="50"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="50"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="22" t="s">
         <v>217</v>
       </c>
@@ -5922,293 +7469,324 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65">
         <v>1</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="65" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65">
         <v>2</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="66" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65">
         <v>3</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="66" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62">
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65">
         <v>4</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="65" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62">
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65">
         <v>5</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="66" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62">
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65">
         <v>6</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="66" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62">
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65">
         <v>7</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="65" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62">
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65">
         <v>8</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="65" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62">
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65">
         <v>9</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="65" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62">
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65">
         <v>10</v>
       </c>
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="65" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -6225,43 +7803,12 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6304,10 +7851,10 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="69" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6321,45 +7868,45 @@
       <c r="D3" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="65"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="65"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="65"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="65"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
@@ -6369,9 +7916,9 @@
         <v>257</v>
       </c>
       <c r="D7" s="42"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="65"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
@@ -6381,9 +7928,9 @@
         <v>143</v>
       </c>
       <c r="D8" s="42"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="65"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
@@ -6393,9 +7940,9 @@
         <v>168</v>
       </c>
       <c r="D9" s="42"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="65"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
@@ -6405,31 +7952,31 @@
         <v>232</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="65"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="65"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="51" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6437,109 +7984,109 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="50"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="50"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="50"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="50"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="50"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
       <c r="F22" s="22" t="s">
         <v>217</v>
       </c>
@@ -6548,297 +8095,320 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65">
         <v>1</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="65" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65">
         <v>2</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="66" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65">
         <v>3</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="66" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62">
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65">
         <v>4</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="65" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62">
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65">
         <v>5</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="66" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62">
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65">
         <v>6</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="66" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62">
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65">
         <v>7</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="65" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62">
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65">
         <v>8</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="65" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62">
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65">
         <v>9</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="65" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62">
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65">
         <v>10</v>
       </c>
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="65" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -6855,39 +8425,16 @@
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="F35:F37"/>
     <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6929,10 +8476,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="72" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6946,45 +8493,45 @@
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="69"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="69"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="69"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="69"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
@@ -6994,67 +8541,67 @@
         <v>257</v>
       </c>
       <c r="D7" s="42"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="69"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="69"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="69"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="69"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="69"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="73" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7062,133 +8609,133 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="72"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="50"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="50"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="73"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="50"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="50"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="48"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="73"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="23" t="s">
         <v>217</v>
       </c>
@@ -7197,293 +8744,329 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32">
         <v>1</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32">
         <v>2</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>3</v>
       </c>
-      <c r="G31" s="57" t="s">
+      <c r="G31" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32">
         <v>4</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>5</v>
       </c>
-      <c r="G37" s="57" t="s">
+      <c r="G37" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32">
         <v>6</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32">
         <v>7</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32">
         <v>8</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32">
         <v>9</v>
       </c>
-      <c r="G49" s="56" t="s">
+      <c r="G49" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32">
         <v>10</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E54"/>
     <mergeCell ref="F25:F27"/>
@@ -7500,48 +9083,12 @@
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="F43:F45"/>
     <mergeCell ref="G43:G45"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7583,10 +9130,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="72" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7600,45 +9147,45 @@
       <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="69"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="69"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="69"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="69"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
@@ -7648,9 +9195,9 @@
         <v>204</v>
       </c>
       <c r="D7" s="42"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="69"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
@@ -7660,9 +9207,9 @@
         <v>205</v>
       </c>
       <c r="D8" s="42"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="69"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
@@ -7672,9 +9219,9 @@
         <v>206</v>
       </c>
       <c r="D9" s="42"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="69"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
@@ -7684,33 +9231,33 @@
         <v>202</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="69"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="69"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="73" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7718,175 +9265,142 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="72"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="73"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="73"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="50"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="50"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="73"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="51" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="73"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="51" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="50"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -7903,6 +9417,39 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7914,7 +9461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -7944,10 +9491,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="72" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7961,115 +9508,115 @@
       <c r="D3" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="69"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="69"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="69"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="69"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="69"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="69"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="69"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="69"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="69"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="30" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="73" t="s">
         <v>261</v>
       </c>
     </row>
@@ -8077,109 +9624,109 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="72"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
       <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="42"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="50"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="73"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="50"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="50"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="50"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="48"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="25"/>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="24" t="s">
         <v>217</v>
       </c>
@@ -8188,314 +9735,305 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>4</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="G35" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32">
         <v>6</v>
       </c>
-      <c r="G38" s="57" t="s">
+      <c r="G38" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>7</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>8</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32">
         <v>9</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>10</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E52"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
@@ -8509,24 +10047,33 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1548" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="1548" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="보류" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="005_SAKURA " sheetId="8" r:id="rId8"/>
     <sheet name="006_Cleaner" sheetId="11" r:id="rId9"/>
     <sheet name="006_Bad_Cleaner" sheetId="12" r:id="rId10"/>
-    <sheet name="007_Bad_Cleaner (2)" sheetId="13" r:id="rId11"/>
+    <sheet name="007_Mingkies" sheetId="13" r:id="rId11"/>
     <sheet name="008_Explosion_wheel" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
@@ -1095,32 +1095,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DSDC에 소속된 청소용역 인부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 어린쥐 기수
-2. 어린쥐 장전 및 발사
-3. 대형 슬링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬링,. 나사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐한마리가 새총고무줄을 땡김, 빨간색 깃발을 들은 쥐가 깃발을 뒤로 향하게 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고무줄 땡긴 쥐가 고무줄을 놓으면서 넘어진다, 깃발을 든쥐가 앞으로 깃발을 휘두른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새총이 부서지면서 쥐들이 도망</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>새총잔해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1187,6 +1161,35 @@
   </si>
   <si>
     <t>잔해가 여기저기 널부러진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 1마리 관측과 기수 담당
+2. 1마리 장전과 발사 담당
+3. 대형 새총</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새총, 나사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군집 생활을 하는 몬스터
+약하기에 주변에 적이 나타나면
+무차별적으로 새총을 이용해
+나사를 발사한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새총이 부서지면서 미어캣들이 도망</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전과 발사 담당 미어캣이 당긴새총을 놓으면서 뒤로 넘어진다, 관측과 기수 담당 미어캣은 깃발을 아래로 내린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전과 발사 담당 미어캣이 새총을 당긴다. 관측과 기수 담당이 관측하고 깃발을 들어올린다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1614,57 +1617,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,11 +1653,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1713,17 +1710,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1731,7 +1728,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1747,14 +1747,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2748,50 +2751,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2564281</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1438143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2877671" y="564776"/>
-          <a:ext cx="2546351" cy="2513908"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>2725271</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2810,7 +2769,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2854,7 +2813,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2869,6 +2828,50 @@
         <a:xfrm>
           <a:off x="5692588" y="2626658"/>
           <a:ext cx="2178425" cy="1452283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2480129</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1308848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3218329" y="1757083"/>
+          <a:ext cx="2121541" cy="1192306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3543,10 +3546,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3560,115 +3563,115 @@
       <c r="D3" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="73"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3676,105 +3679,105 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="71"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="71"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="76"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="24" t="s">
         <v>217</v>
       </c>
@@ -3783,287 +3786,889 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59">
         <v>1</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="59" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59">
         <v>3</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="60" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59">
         <v>4</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="59" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59">
         <v>5</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59">
         <v>6</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59">
         <v>7</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="59" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59">
         <v>8</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="59" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59">
         <v>9</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="59" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59">
         <v>10</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="59" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="72"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="72"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="72"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="75"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="76"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59">
+        <v>1</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59">
+        <v>2</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59">
+        <v>3</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59">
+        <v>4</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59">
+        <v>5</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59">
+        <v>6</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59">
+        <v>7</v>
+      </c>
+      <c r="G39" s="59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59">
+        <v>8</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59">
+        <v>9</v>
+      </c>
+      <c r="G45" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59">
+        <v>10</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -4082,601 +4687,18 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E52"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:7" ht="12" customHeight="1">
-      <c r="B2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="12" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="2:7" ht="12" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="73"/>
-    </row>
-    <row r="5" spans="2:7" ht="12" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="2:7" ht="12" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="73"/>
-    </row>
-    <row r="7" spans="2:7" ht="12" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="73"/>
-    </row>
-    <row r="8" spans="2:7" ht="12" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="2:7" ht="12" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" spans="2:7" ht="12" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="2:7" ht="12" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
-      <c r="B13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="76"/>
-    </row>
-    <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="71"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32">
-        <v>1</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32">
-        <v>2</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32">
-        <v>3</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32">
-        <v>4</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32">
-        <v>5</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32">
-        <v>6</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32">
-        <v>7</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32">
-        <v>8</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32">
-        <v>9</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32">
-        <v>10</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
     <mergeCell ref="F39:F41"/>
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="B19:C19"/>
@@ -4689,36 +4711,17 @@
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="F30:F32"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4731,7 +4734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -4761,11 +4764,11 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="72" t="s">
-        <v>294</v>
+      <c r="G2" s="71" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="12" customHeight="1">
@@ -4773,218 +4776,218 @@
         <v>211</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="73"/>
+        <v>282</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="73"/>
+      <c r="C4" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="73"/>
+      <c r="C5" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="73"/>
+      <c r="C7" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="73"/>
+      <c r="C10" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="73"/>
+      <c r="C11" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="73" t="s">
-        <v>295</v>
+      <c r="G12" s="72" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="76"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="30" t="s">
         <v>217</v>
       </c>
@@ -4993,322 +4996,292 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59">
         <v>1</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="59" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59">
         <v>2</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59">
         <v>3</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="60" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59">
         <v>4</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="59" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59">
         <v>5</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59">
         <v>6</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59">
         <v>7</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="59" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32">
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59">
         <v>8</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="59" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59">
         <v>9</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="59" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59">
         <v>10</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G49" s="59" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E51"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -5325,11 +5298,41 @@
     <mergeCell ref="E3:E13"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E51"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5950,10 +5953,10 @@
       <c r="E2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="38" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5967,115 +5970,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="52"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="52"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="52"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="34" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6083,121 +6086,121 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="35">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52">
         <v>43206</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="35">
+      <c r="E16" s="51"/>
+      <c r="F16" s="52">
         <v>43206</v>
       </c>
-      <c r="G16" s="36"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="35">
+      <c r="E17" s="51"/>
+      <c r="F17" s="52">
         <v>43206</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="35">
+      <c r="E18" s="51"/>
+      <c r="F18" s="52">
         <v>43206</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="35">
+      <c r="E19" s="51"/>
+      <c r="F19" s="52">
         <v>43206</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="35">
+      <c r="E20" s="51"/>
+      <c r="F20" s="52">
         <v>43206</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="23" t="s">
         <v>217</v>
       </c>
@@ -6206,324 +6209,293 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59">
         <v>1</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="59" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="60" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59">
         <v>3</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="60" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59">
         <v>4</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="59" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59">
         <v>5</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59">
         <v>6</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59">
         <v>7</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="59" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59">
         <v>8</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="59" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59">
         <v>9</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="59" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59">
         <v>10</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="59" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="G23:G25"/>
@@ -6540,12 +6512,43 @@
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6588,10 +6591,10 @@
       <c r="E2" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="61" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6605,115 +6608,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="64"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="64"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="64"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="64"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="64"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="64"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="64"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="64"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="34" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6721,121 +6724,121 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="35">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52">
         <v>43206</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="35">
+      <c r="E16" s="51"/>
+      <c r="F16" s="52">
         <v>43206</v>
       </c>
-      <c r="G16" s="36"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="35">
+      <c r="E17" s="51"/>
+      <c r="F17" s="52">
         <v>43206</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="61" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="35">
+      <c r="E18" s="64"/>
+      <c r="F18" s="52">
         <v>43206</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="35">
+      <c r="E19" s="51"/>
+      <c r="F19" s="52">
         <v>43206</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="35">
+      <c r="E20" s="51"/>
+      <c r="F20" s="52">
         <v>43206</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="23" t="s">
         <v>217</v>
       </c>
@@ -6844,324 +6847,293 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59">
         <v>1</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="59" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59">
         <v>3</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="60" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59">
         <v>4</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="59" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59">
         <v>5</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59">
         <v>6</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59">
         <v>7</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="59" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59">
         <v>8</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="59" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59">
         <v>9</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="59" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59">
         <v>10</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="59" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -7178,12 +7150,43 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7225,10 +7228,10 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="61" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7242,115 +7245,115 @@
       <c r="D3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="64"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="64"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="64"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="64"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="64"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="64"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="64"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="64"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="34" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7358,101 +7361,101 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="61" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="65" t="s">
@@ -7750,43 +7753,12 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -7803,12 +7775,43 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7851,10 +7854,10 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="67" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7868,115 +7871,115 @@
       <c r="D3" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="70"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="70"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="70"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="70"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="70"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="70"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="70"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="70"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="70"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="34" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7984,101 +7987,101 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="67" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="67" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="65" t="s">
@@ -8376,39 +8379,16 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -8425,16 +8405,39 @@
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="F35:F37"/>
     <mergeCell ref="G35:G37"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8476,10 +8479,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8493,115 +8496,115 @@
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="73"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="73"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8609,133 +8612,133 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="36"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="71"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="76"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="71"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="76"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="23" t="s">
         <v>217</v>
       </c>
@@ -8744,329 +8747,293 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59">
         <v>1</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="59" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59">
         <v>2</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59">
         <v>3</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="60" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59">
         <v>4</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="59" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59">
         <v>5</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32">
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59">
         <v>6</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32">
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59">
         <v>7</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="59" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32">
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59">
         <v>8</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="59" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59">
         <v>9</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G49" s="59" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32">
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59">
         <v>10</v>
       </c>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="59" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E54"/>
     <mergeCell ref="F25:F27"/>
@@ -9083,12 +9050,48 @@
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="F43:F45"/>
     <mergeCell ref="G43:G45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9130,10 +9133,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>207</v>
       </c>
     </row>
@@ -9147,117 +9150,117 @@
       <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="73"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="73"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="73"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="73"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="73"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="73"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="73"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="73"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>208</v>
       </c>
     </row>
@@ -9265,142 +9268,175 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="71"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="76"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="36"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="71"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="76"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="71"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="76"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="36"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -9417,39 +9453,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9491,10 +9494,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9508,115 +9511,115 @@
       <c r="D3" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="73"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="73"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="50" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="72" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9624,109 +9627,109 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="71"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="25"/>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="24" t="s">
         <v>217</v>
       </c>
@@ -9735,287 +9738,329 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59">
         <v>1</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="59" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59">
         <v>2</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59">
         <v>3</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="60" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59">
         <v>4</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="59" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59">
         <v>5</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59">
         <v>6</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32">
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59">
         <v>7</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="59" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59">
         <v>8</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="59" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59">
         <v>9</v>
       </c>
-      <c r="G47" s="32" t="s">
+      <c r="G47" s="59" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59">
         <v>10</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="59" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E52"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -10032,48 +10077,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E52"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/Npc 통합 발주 문서.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="303">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1190,6 +1190,14 @@
   </si>
   <si>
     <t>장전과 발사 담당 미어캣이 새총을 당긴다. 관측과 기수 담당이 관측하고 깃발을 들어올린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1617,6 +1625,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1653,56 +1712,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1710,17 +1724,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1728,10 +1742,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1747,17 +1758,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3546,10 +3554,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3563,115 +3571,115 @@
       <c r="D3" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="72"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="72"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="72"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="72"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="72"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="72"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="72"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="73" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3679,105 +3687,105 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="75"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="76"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="53"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="53"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="76"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="24" t="s">
         <v>217</v>
       </c>
@@ -3786,293 +3794,324 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>4</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32">
         <v>6</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>7</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>8</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32">
         <v>9</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G47" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>10</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -4089,24 +4128,589 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="12" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="12" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="2:7" ht="12" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="2:7" ht="12" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="2:7" ht="12" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="2:7" ht="12" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:7" ht="12" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="2:7" ht="12" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" spans="2:7" ht="12" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="2:7" ht="12" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
+    </row>
+    <row r="12" spans="2:7" ht="228" customHeight="1">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
+    </row>
+    <row r="14" spans="2:7" ht="12" customHeight="1">
+      <c r="B14" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="2:7" ht="12" customHeight="1">
+      <c r="B15" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="71"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="71"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32">
+        <v>2</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32">
+        <v>3</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32">
+        <v>4</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32">
+        <v>5</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32">
+        <v>6</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32">
+        <v>7</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32">
+        <v>8</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32">
+        <v>9</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32">
+        <v>10</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E50"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="F36:F38"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -4126,602 +4730,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:F13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="2.09765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="74.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:7" ht="12" customHeight="1">
-      <c r="B2" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="12" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="72"/>
-    </row>
-    <row r="4" spans="2:7" ht="12" customHeight="1">
-      <c r="B4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="72"/>
-    </row>
-    <row r="5" spans="2:7" ht="12" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="2:7" ht="12" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="72"/>
-    </row>
-    <row r="7" spans="2:7" ht="12" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="2:7" ht="12" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="72"/>
-    </row>
-    <row r="9" spans="2:7" ht="12" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="72"/>
-    </row>
-    <row r="10" spans="2:7" ht="12" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="72"/>
-    </row>
-    <row r="11" spans="2:7" ht="12" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="72"/>
-    </row>
-    <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="12" customHeight="1" thickBot="1">
-      <c r="B13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="75"/>
-    </row>
-    <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="49"/>
-    </row>
-    <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="76"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="76"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59">
-        <v>1</v>
-      </c>
-      <c r="G21" s="59" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59">
-        <v>2</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59">
-        <v>3</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59">
-        <v>4</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59">
-        <v>5</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59">
-        <v>6</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59">
-        <v>7</v>
-      </c>
-      <c r="G39" s="59" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59">
-        <v>8</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59">
-        <v>9</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59">
-        <v>10</v>
-      </c>
-      <c r="G48" s="59" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E50"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4764,10 +4772,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4781,115 +4789,115 @@
       <c r="D3" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="72"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="72"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="72"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="72"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="72"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="72"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="72"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="73" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4897,97 +4905,97 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="75"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="53"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="53"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="76"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="30" t="s">
         <v>217</v>
       </c>
@@ -4996,292 +5004,322 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32">
         <v>1</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="32" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32">
         <v>2</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32">
         <v>3</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>4</v>
       </c>
-      <c r="G31" s="59" t="s">
+      <c r="G31" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32">
         <v>5</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>6</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32">
         <v>7</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32">
         <v>8</v>
       </c>
-      <c r="G43" s="59" t="s">
+      <c r="G43" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32">
         <v>9</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32">
         <v>10</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E51"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -5298,41 +5336,11 @@
     <mergeCell ref="E3:E13"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E51"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5953,10 +5961,10 @@
       <c r="E2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="55" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5970,115 +5978,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="35"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="35"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="35"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="35"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="35"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="51" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6086,121 +6094,121 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52">
+      <c r="E15" s="40"/>
+      <c r="F15" s="35">
         <v>43206</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52">
+      <c r="E16" s="40"/>
+      <c r="F16" s="35">
         <v>43206</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52">
+      <c r="E17" s="40"/>
+      <c r="F17" s="35">
         <v>43206</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52">
+      <c r="E18" s="40"/>
+      <c r="F18" s="35">
         <v>43206</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52">
+      <c r="E19" s="40"/>
+      <c r="F19" s="35">
         <v>43206</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52">
+      <c r="E20" s="40"/>
+      <c r="F20" s="35">
         <v>43206</v>
       </c>
-      <c r="G20" s="53"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="23" t="s">
         <v>217</v>
       </c>
@@ -6209,293 +6217,324 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="32" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="33" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>4</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32">
         <v>6</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>7</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>8</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32">
         <v>9</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G47" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>10</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="G23:G25"/>
@@ -6512,43 +6551,12 @@
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="F47:F49"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6591,10 +6599,10 @@
       <c r="E2" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="63" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6608,115 +6616,115 @@
       <c r="D3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="62"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="62"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="62"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="62"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="62"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="62"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="62"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="62"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="51" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6724,121 +6732,121 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52">
+      <c r="E15" s="40"/>
+      <c r="F15" s="35">
         <v>43206</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52">
+      <c r="E16" s="40"/>
+      <c r="F16" s="35">
         <v>43206</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52">
+      <c r="E17" s="40"/>
+      <c r="F17" s="35">
         <v>43206</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="63" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="52">
+      <c r="E18" s="62"/>
+      <c r="F18" s="35">
         <v>43206</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52">
+      <c r="E19" s="40"/>
+      <c r="F19" s="35">
         <v>43206</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52">
+      <c r="E20" s="40"/>
+      <c r="F20" s="35">
         <v>43206</v>
       </c>
-      <c r="G20" s="53"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="23" t="s">
         <v>217</v>
       </c>
@@ -6847,293 +6855,324 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>4</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32">
         <v>6</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>7</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>8</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32">
         <v>9</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G47" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>10</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -7150,43 +7189,12 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7228,10 +7236,10 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="63" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7245,115 +7253,115 @@
       <c r="D3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="62"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="62"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="62"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="62"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="62"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="62"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="62"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="62"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="51" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7361,101 +7369,101 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="53"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="63" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="53"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="53"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="65" t="s">
@@ -7753,12 +7761,43 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -7775,43 +7814,12 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7854,10 +7862,10 @@
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="69" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7871,115 +7879,115 @@
       <c r="D3" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="68"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="68"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="68"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="68"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="68"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="68"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="68"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="68"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="68"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="51" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7987,101 +7995,101 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="53"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="69" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="69" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="53"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="53"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="65" t="s">
@@ -8379,16 +8387,39 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -8405,39 +8436,16 @@
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="F35:F37"/>
     <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8479,10 +8487,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8496,115 +8504,115 @@
       <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="72"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="72"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="72"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="72"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="72"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="72"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="72"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="73" t="s">
         <v>187</v>
       </c>
     </row>
@@ -8612,133 +8620,133 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="75"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="53"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="76"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="53"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="54" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="76"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="23" t="s">
         <v>217</v>
       </c>
@@ -8747,293 +8755,329 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32">
         <v>1</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32">
         <v>2</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <v>3</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32">
         <v>4</v>
       </c>
-      <c r="G34" s="59" t="s">
+      <c r="G34" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
         <v>5</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32">
         <v>6</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32">
         <v>7</v>
       </c>
-      <c r="G43" s="59" t="s">
+      <c r="G43" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32">
         <v>8</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32">
         <v>9</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32">
         <v>10</v>
       </c>
-      <c r="G52" s="59" t="s">
+      <c r="G52" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E54"/>
     <mergeCell ref="F25:F27"/>
@@ -9050,48 +9094,12 @@
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="F43:F45"/>
     <mergeCell ref="G43:G45"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9133,10 +9141,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>207</v>
       </c>
     </row>
@@ -9150,117 +9158,117 @@
       <c r="D3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="72"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="72"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="72"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="72"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="72"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="72"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="72"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="72"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="73" t="s">
         <v>208</v>
       </c>
     </row>
@@ -9268,175 +9276,142 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="75"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="76"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" ht="12" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7" ht="12" customHeight="1">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="76"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="53"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="54" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="76"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="76"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="54" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="53"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -9453,6 +9428,39 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9494,10 +9502,10 @@
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="72" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9511,115 +9519,115 @@
       <c r="D3" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="72"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="2:7" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="72"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="2:7" ht="12" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="12" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="72"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="2:7" ht="12" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="72"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="2:7" ht="12" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" ht="12" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="72"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="2:7" ht="12" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="72"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="2:7" ht="12" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="72"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="228" customHeight="1">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="73" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9627,109 +9635,109 @@
       <c r="B13" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="75"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="2:7" ht="12" customHeight="1">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:7" ht="12" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="53"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="76"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="2:7" ht="12" customHeight="1">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="53"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="53"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="53"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="25"/>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="24" t="s">
         <v>217</v>
       </c>
@@ -9738,293 +9746,323 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <v>1</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <v>2</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="33" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="33" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32">
         <v>4</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
         <v>5</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32">
         <v>6</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32">
         <v>7</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32">
         <v>8</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32">
         <v>9</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G47" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>10</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E52"/>
     <mergeCell ref="F23:F25"/>
@@ -10041,42 +10079,12 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
